--- a/full_anno/all_anno/CPTEVENTS_anno.xlsx
+++ b/full_anno/all_anno/CPTEVENTS_anno.xlsx
@@ -3,20 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="CTA_CEA" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="CPA_short" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="CPA_long" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="0UhaTJSvX3HMLzCcabcQlqBQE2cuHg7KKAWhD5wSSYE="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="yu4WDgCVhGo+29FKOo4rSQBgum82AFsTYggXNFgYgIY="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="50">
   <si>
     <t>column</t>
   </si>
@@ -60,7 +62,7 @@
     <t>CTA</t>
   </si>
   <si>
-    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasIdentifier</t>
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#BilledProcedure</t>
   </si>
   <si>
     <t>https://biomedit.ch/rdf/sphn-schema/sphn#SubjectPseudoIdentifier</t>
@@ -132,7 +134,7 @@
     <t>https://www.aapc.com/codes/cpt-codes/99239</t>
   </si>
   <si>
-    <t>CPA</t>
+    <t>table</t>
   </si>
   <si>
     <t>source</t>
@@ -144,7 +146,10 @@
     <t>label</t>
   </si>
   <si>
-    <t>https://biomedit.ch/rdf/sphn-schema/sphn#BilledProcedure</t>
+    <t>level</t>
+  </si>
+  <si>
+    <t>CPTEVENTS</t>
   </si>
   <si>
     <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasSubjectPseudoIdentifier</t>
@@ -169,7 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="24">
+  <fonts count="29">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -210,6 +215,12 @@
       <b/>
       <u/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -232,34 +243,20 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
-      <b/>
       <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="&quot;aptos narrow&quot;"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
-      <b/>
-      <u/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-    </font>
-    <font/>
     <font>
       <u/>
       <sz val="11.0"/>
@@ -269,11 +266,16 @@
     <font>
       <u/>
       <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
       <u/>
       <sz val="11.0"/>
       <color rgb="FF0000FF"/>
@@ -295,8 +297,34 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -335,6 +363,25 @@
       </bottom>
     </border>
     <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -358,30 +405,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="56">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -403,99 +431,144 @@
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,6 +579,14 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -715,30 +796,31 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="28.29"/>
     <col customWidth="1" min="2" max="2" width="16.71"/>
-    <col customWidth="1" min="3" max="3" width="4.14"/>
-    <col customWidth="1" min="4" max="4" width="25.71"/>
-    <col customWidth="1" min="5" max="5" width="2.71"/>
-    <col customWidth="1" min="6" max="6" width="22.0"/>
-    <col customWidth="1" min="7" max="7" width="2.14"/>
-    <col customWidth="1" min="8" max="8" width="16.57"/>
-    <col customWidth="1" min="9" max="9" width="2.57"/>
-    <col customWidth="1" min="10" max="10" width="14.43"/>
-    <col customWidth="1" min="11" max="11" width="2.14"/>
-    <col customWidth="1" min="12" max="12" width="14.0"/>
-    <col customWidth="1" min="13" max="13" width="16.86"/>
-    <col customWidth="1" min="14" max="14" width="21.57"/>
-    <col customWidth="1" min="15" max="15" width="2.43"/>
-    <col customWidth="1" min="16" max="16" width="17.0"/>
-    <col customWidth="1" min="17" max="17" width="2.14"/>
-    <col customWidth="1" min="18" max="18" width="26.86"/>
-    <col customWidth="1" min="19" max="19" width="2.0"/>
-    <col customWidth="1" min="20" max="20" width="33.0"/>
-    <col customWidth="1" min="21" max="21" width="2.71"/>
-    <col customWidth="1" min="22" max="22" width="32.14"/>
-    <col customWidth="1" min="23" max="23" width="2.0"/>
-    <col customWidth="1" min="24" max="24" width="23.29"/>
-    <col customWidth="1" min="25" max="25" width="2.14"/>
-    <col customWidth="1" min="26" max="39" width="8.71"/>
+    <col customWidth="1" min="3" max="3" width="3.43"/>
+    <col customWidth="1" min="4" max="4" width="4.14"/>
+    <col customWidth="1" min="5" max="5" width="25.71"/>
+    <col customWidth="1" min="6" max="6" width="2.71"/>
+    <col customWidth="1" min="7" max="7" width="22.0"/>
+    <col customWidth="1" min="8" max="8" width="2.14"/>
+    <col customWidth="1" min="9" max="9" width="16.57"/>
+    <col customWidth="1" min="10" max="10" width="2.57"/>
+    <col customWidth="1" min="11" max="11" width="14.43"/>
+    <col customWidth="1" min="12" max="12" width="2.14"/>
+    <col customWidth="1" min="13" max="13" width="14.0"/>
+    <col customWidth="1" min="14" max="14" width="16.86"/>
+    <col customWidth="1" min="15" max="15" width="21.57"/>
+    <col customWidth="1" min="16" max="16" width="2.43"/>
+    <col customWidth="1" min="17" max="17" width="17.0"/>
+    <col customWidth="1" min="18" max="18" width="2.14"/>
+    <col customWidth="1" min="19" max="19" width="26.86"/>
+    <col customWidth="1" min="20" max="20" width="2.0"/>
+    <col customWidth="1" min="21" max="21" width="33.0"/>
+    <col customWidth="1" min="22" max="22" width="2.71"/>
+    <col customWidth="1" min="23" max="23" width="32.14"/>
+    <col customWidth="1" min="24" max="24" width="2.0"/>
+    <col customWidth="1" min="25" max="25" width="23.29"/>
+    <col customWidth="1" min="26" max="26" width="2.14"/>
+    <col customWidth="1" min="27" max="40" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -802,899 +884,3211 @@
         <v>14</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="5"/>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="4" t="s">
+      <c r="K2" s="8"/>
+      <c r="L2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="M2" s="5"/>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="6" t="s">
+      <c r="O2" s="8"/>
+      <c r="P2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="6" t="s">
+      <c r="Q2" s="8"/>
+      <c r="R2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="7"/>
-      <c r="T2" s="4" t="s">
+      <c r="S2" s="8"/>
+      <c r="T2" s="6" t="s">
         <v>23</v>
       </c>
       <c r="U2" s="5"/>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="7"/>
-      <c r="X2" s="6" t="s">
+      <c r="W2" s="8"/>
+      <c r="X2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="7"/>
+      <c r="Y2" s="8"/>
     </row>
     <row r="3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="9"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="9"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="9"/>
+      <c r="H3" s="10"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="9"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="10"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="9"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="10"/>
       <c r="U3" s="5"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="12">
         <v>225966.0</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12">
         <v>42412.0</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12">
         <v>114867.0</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11">
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12">
         <v>99223.0</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="12">
         <v>99223.0</v>
       </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11">
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12">
         <v>34.0</v>
       </c>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11" t="s">
+      <c r="S4" s="12"/>
+      <c r="T4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11" t="s">
+      <c r="U4" s="12"/>
+      <c r="V4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
     </row>
     <row r="5">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11">
+      <c r="A5" s="14"/>
+      <c r="B5" s="12">
         <v>225967.0</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12">
         <v>42412.0</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12">
         <v>114867.0</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="12"/>
+      <c r="H5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11">
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12">
         <v>99291.0</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="12">
         <v>99291.0</v>
       </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11">
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12">
         <v>35.0</v>
       </c>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11" t="s">
+      <c r="S5" s="12"/>
+      <c r="T5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11" t="s">
+      <c r="U5" s="12"/>
+      <c r="V5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
     </row>
     <row r="6">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12">
         <v>225968.0</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12">
         <v>42412.0</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12">
         <v>114867.0</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="12"/>
+      <c r="H6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11">
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12">
         <v>99252.0</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="12">
         <v>99252.0</v>
       </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11">
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12">
         <v>36.0</v>
       </c>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11" t="s">
+      <c r="S6" s="12"/>
+      <c r="T6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11" t="s">
+      <c r="U6" s="12"/>
+      <c r="V6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
     </row>
     <row r="7">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12">
         <v>225969.0</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12">
         <v>42412.0</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11">
+      <c r="E7" s="12"/>
+      <c r="F7" s="12">
         <v>114867.0</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11">
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12">
         <v>99233.0</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="12">
         <v>99233.0</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11">
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12">
         <v>37.0</v>
       </c>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11" t="s">
+      <c r="S7" s="12"/>
+      <c r="T7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11" t="s">
+      <c r="U7" s="12"/>
+      <c r="V7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
     </row>
     <row r="8">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12">
         <v>225970.0</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12">
         <v>42412.0</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12">
         <v>114867.0</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11">
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12">
         <v>99233.0</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="12">
         <v>99233.0</v>
       </c>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11">
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12">
         <v>38.0</v>
       </c>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11" t="s">
+      <c r="S8" s="12"/>
+      <c r="T8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11" t="s">
+      <c r="U8" s="12"/>
+      <c r="V8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
     </row>
     <row r="9">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12">
         <v>225971.0</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12">
         <v>42412.0</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12">
         <v>114867.0</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11" t="s">
+      <c r="G9" s="12"/>
+      <c r="H9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11">
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12">
         <v>99232.0</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="12">
         <v>99232.0</v>
       </c>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11">
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12">
         <v>39.0</v>
       </c>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11" t="s">
+      <c r="S9" s="12"/>
+      <c r="T9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11" t="s">
+      <c r="U9" s="12"/>
+      <c r="V9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
     </row>
     <row r="10">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12">
         <v>225972.0</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12">
         <v>42412.0</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12">
         <v>114867.0</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11" t="s">
+      <c r="G10" s="12"/>
+      <c r="H10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11">
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12">
         <v>99232.0</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="12">
         <v>99232.0</v>
       </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11">
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12">
         <v>40.0</v>
       </c>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11" t="s">
+      <c r="S10" s="12"/>
+      <c r="T10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11" t="s">
+      <c r="U10" s="12"/>
+      <c r="V10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
     </row>
     <row r="11">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12">
         <v>225973.0</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12">
         <v>42412.0</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12">
         <v>114867.0</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11" t="s">
+      <c r="G11" s="12"/>
+      <c r="H11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11">
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12">
         <v>99239.0</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="M11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="12">
         <v>99239.0</v>
       </c>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11">
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12">
         <v>41.0</v>
       </c>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11" t="s">
+      <c r="S11" s="12"/>
+      <c r="T11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11" t="s">
+      <c r="U11" s="12"/>
+      <c r="V11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="14" t="s">
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" location="BilledProcedure" ref="A1"/>
+    <hyperlink r:id="rId2" location="BilledProcedure" ref="B2"/>
+    <hyperlink r:id="rId3" location="SubjectPseudoIdentifier" ref="D2"/>
+    <hyperlink r:id="rId4" location="AdministrativeCase" ref="F2"/>
+    <hyperlink r:id="rId5" location="Location" ref="H2"/>
+    <hyperlink r:id="rId6" location="hasDateTime" ref="J2"/>
+    <hyperlink r:id="rId7" location="hasCode" ref="L2"/>
+    <hyperlink r:id="rId8" ref="N2"/>
+    <hyperlink r:id="rId9" ref="P2"/>
+    <hyperlink r:id="rId10" location="BilledProcedure_rank" ref="R2"/>
+    <hyperlink r:id="rId11" location="hasCategory" ref="T2"/>
+    <hyperlink r:id="rId12" ref="V2"/>
+    <hyperlink r:id="rId13" location="hasDescription" ref="X2"/>
+    <hyperlink r:id="rId14" ref="M4"/>
+    <hyperlink r:id="rId15" ref="M5"/>
+    <hyperlink r:id="rId16" ref="M6"/>
+    <hyperlink r:id="rId17" ref="M7"/>
+    <hyperlink r:id="rId18" ref="M8"/>
+    <hyperlink r:id="rId19" ref="M9"/>
+    <hyperlink r:id="rId20" ref="M10"/>
+    <hyperlink r:id="rId21" ref="M11"/>
+  </hyperlinks>
+  <printOptions/>
+  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId22"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="2" width="28.29"/>
+    <col customWidth="1" min="3" max="4" width="16.71"/>
+    <col customWidth="1" min="5" max="5" width="25.71"/>
+    <col customWidth="1" min="6" max="6" width="22.0"/>
+    <col customWidth="1" min="7" max="7" width="16.57"/>
+    <col customWidth="1" min="8" max="8" width="14.43"/>
+    <col customWidth="1" min="9" max="9" width="14.0"/>
+    <col customWidth="1" min="10" max="10" width="16.86"/>
+    <col customWidth="1" min="11" max="11" width="21.57"/>
+    <col customWidth="1" min="12" max="12" width="17.0"/>
+    <col customWidth="1" min="13" max="13" width="26.86"/>
+    <col customWidth="1" min="14" max="14" width="33.0"/>
+    <col customWidth="1" min="15" max="15" width="32.14"/>
+    <col customWidth="1" min="16" max="16" width="23.29"/>
+    <col customWidth="1" min="17" max="30" width="8.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="23" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27"/>
+      <c r="C2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="45"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="45"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="45"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="45"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="45"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="45"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="45"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="45"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="45"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="45"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="45"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="45"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="45"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink r:id="rId1" location="hasSubjectPseudoIdentifier" ref="D2"/>
+    <hyperlink r:id="rId2" location="hasAdministrativeCase" ref="D3"/>
+    <hyperlink r:id="rId3" location="hasSubjectPseudoIdentifier" ref="D4"/>
+    <hyperlink r:id="rId4" location="hasRank" ref="D5"/>
+    <hyperlink r:id="rId5" location="hasLocation" ref="D6"/>
+    <hyperlink r:id="rId6" location="hasDateTime" ref="D7"/>
+    <hyperlink r:id="rId7" location="hasName" ref="D8"/>
+    <hyperlink r:id="rId8" location="hasCategory" ref="D9"/>
+    <hyperlink r:id="rId9" location="hasDescription" ref="D10"/>
+    <hyperlink r:id="rId10" location="hasCode" ref="D11"/>
+    <hyperlink r:id="rId11" location="hasValue" ref="D12"/>
+    <hyperlink r:id="rId12" location="hasValue" ref="D13"/>
+  </hyperlinks>
+  <printOptions/>
+  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId13"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="2" width="28.29"/>
+    <col customWidth="1" min="3" max="4" width="16.71"/>
+    <col customWidth="1" min="5" max="5" width="25.71"/>
+    <col customWidth="1" min="6" max="6" width="22.0"/>
+    <col customWidth="1" min="7" max="7" width="16.57"/>
+    <col customWidth="1" min="8" max="8" width="14.0"/>
+    <col customWidth="1" min="9" max="9" width="16.86"/>
+    <col customWidth="1" min="10" max="10" width="21.57"/>
+    <col customWidth="1" min="11" max="11" width="17.0"/>
+    <col customWidth="1" min="12" max="12" width="26.86"/>
+    <col customWidth="1" min="13" max="13" width="33.0"/>
+    <col customWidth="1" min="14" max="14" width="32.14"/>
+    <col customWidth="1" min="15" max="15" width="23.29"/>
+    <col customWidth="1" min="16" max="29" width="8.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="45"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="45"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="28"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="28"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
+      <c r="J15" s="28"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="45"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="28"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="28"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="28"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="28"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="28"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="28"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="28"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="28"/>
+      <c r="J16" s="28"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="45"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="45"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="45"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="45"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="45"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="45"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="28"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="28"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="27"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="27"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="27"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="27"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="27"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="27"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="27"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="27"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="27"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="27"/>
-    </row>
+      <c r="A26" s="45"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
     <row r="40" ht="15.75" customHeight="1"/>
     <row r="41" ht="15.75" customHeight="1"/>
     <row r="42" ht="15.75" customHeight="1"/>
@@ -2647,117 +5041,52 @@
     <row r="989" ht="15.75" customHeight="1"/>
     <row r="990" ht="15.75" customHeight="1"/>
     <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
-    <row r="1004" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
+  <mergeCells count="26">
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D6:G6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" location="BilledProcedure" ref="A1"/>
-    <hyperlink r:id="rId2" location="hasIdentifier" ref="B2"/>
-    <hyperlink r:id="rId3" location="SubjectPseudoIdentifier" ref="D2"/>
-    <hyperlink r:id="rId4" location="AdministrativeCase" ref="F2"/>
-    <hyperlink r:id="rId5" location="Location" ref="H2"/>
-    <hyperlink r:id="rId6" location="hasDateTime" ref="J2"/>
-    <hyperlink r:id="rId7" location="hasCode" ref="L2"/>
-    <hyperlink r:id="rId8" ref="N2"/>
-    <hyperlink r:id="rId9" ref="P2"/>
-    <hyperlink r:id="rId10" location="BilledProcedure_rank" ref="R2"/>
-    <hyperlink r:id="rId11" location="hasCategory" ref="T2"/>
-    <hyperlink r:id="rId12" ref="V2"/>
-    <hyperlink r:id="rId13" location="hasDescription" ref="X2"/>
-    <hyperlink r:id="rId14" ref="M4"/>
-    <hyperlink r:id="rId15" ref="M5"/>
-    <hyperlink r:id="rId16" ref="M6"/>
-    <hyperlink r:id="rId17" ref="M7"/>
-    <hyperlink r:id="rId18" ref="M8"/>
-    <hyperlink r:id="rId19" ref="M9"/>
-    <hyperlink r:id="rId20" ref="M10"/>
-    <hyperlink r:id="rId21" ref="M11"/>
-    <hyperlink r:id="rId22" location="BilledProcedure" ref="A15"/>
-    <hyperlink r:id="rId23" location="hasIdentifier" ref="C15"/>
-    <hyperlink r:id="rId24" location="hasSubjectPseudoIdentifier" ref="C16"/>
-    <hyperlink r:id="rId25" location="BilledProcedure" ref="A17"/>
-    <hyperlink r:id="rId26" location="SubjectPseudoIdentifier" ref="B17"/>
-    <hyperlink r:id="rId27" location="hasSubjectPseudoIdentifier" ref="C17"/>
-    <hyperlink r:id="rId28" location="hasAdministrativeCase" ref="C18"/>
-    <hyperlink r:id="rId29" location="BilledProcedure" ref="A19"/>
-    <hyperlink r:id="rId30" location="SubjectPseudoIdentifier" ref="B19"/>
-    <hyperlink r:id="rId31" location="hasAdministrativeCase" ref="C19"/>
-    <hyperlink r:id="rId32" location="hasSubjectPseudoIdentifier" ref="C20"/>
-    <hyperlink r:id="rId33" location="BilledProcedure" ref="A21"/>
-    <hyperlink r:id="rId34" location="SubjectPseudoIdentifier" ref="B21"/>
-    <hyperlink r:id="rId35" location="hasSubjectPseudoIdentifier" ref="C21"/>
-    <hyperlink r:id="rId36" location="hasRank" ref="C22"/>
-    <hyperlink r:id="rId37" location="BilledProcedure" ref="A23"/>
-    <hyperlink r:id="rId38" location="BilledProcedure_rank" ref="B23"/>
-    <hyperlink r:id="rId39" location="hasRank" ref="C23"/>
-    <hyperlink r:id="rId40" location="hasLocation" ref="C24"/>
-    <hyperlink r:id="rId41" location="BilledProcedure" ref="A25"/>
-    <hyperlink r:id="rId42" location="Location" ref="B25"/>
-    <hyperlink r:id="rId43" location="hasLocation" ref="C25"/>
-    <hyperlink r:id="rId44" location="hasDateTime" ref="C26"/>
-    <hyperlink r:id="rId45" location="BilledProcedure" ref="A27"/>
-    <hyperlink r:id="rId46" location="hasDateTime" ref="C27"/>
-    <hyperlink r:id="rId47" location="hasName" ref="C28"/>
-    <hyperlink r:id="rId48" location="BilledProcedure" ref="A29"/>
-    <hyperlink r:id="rId49" ref="B29"/>
-    <hyperlink r:id="rId50" location="hasName" ref="C29"/>
-    <hyperlink r:id="rId51" location="hasCategory" ref="C30"/>
-    <hyperlink r:id="rId52" ref="A31"/>
-    <hyperlink r:id="rId53" location="hasCategory" ref="C31"/>
-    <hyperlink r:id="rId54" location="hasDescription" ref="C32"/>
-    <hyperlink r:id="rId55" ref="A33"/>
-    <hyperlink r:id="rId56" location="hasDescription" ref="C33"/>
-    <hyperlink r:id="rId57" location="hasCode" ref="C34"/>
-    <hyperlink r:id="rId58" location="BilledProcedure" ref="A35"/>
-    <hyperlink r:id="rId59" location="hasCode" ref="C35"/>
-    <hyperlink r:id="rId60" location="hasValue" ref="C36"/>
-    <hyperlink r:id="rId61" ref="B37"/>
-    <hyperlink r:id="rId62" location="hasValue" ref="C37"/>
-    <hyperlink r:id="rId63" location="hasValue" ref="C38"/>
-    <hyperlink r:id="rId64" ref="B39"/>
-    <hyperlink r:id="rId65" location="hasValue" ref="C39"/>
+    <hyperlink r:id="rId1" location="hasSubjectPseudoIdentifier" ref="D2"/>
+    <hyperlink r:id="rId2" location="hasAdministrativeCase" ref="D3"/>
+    <hyperlink r:id="rId3" location="hasSubjectPseudoIdentifier" ref="D4"/>
+    <hyperlink r:id="rId4" location="hasRank" ref="D5"/>
+    <hyperlink r:id="rId5" location="hasLocation" ref="D6"/>
+    <hyperlink r:id="rId6" location="hasDateTime" ref="D7"/>
+    <hyperlink r:id="rId7" location="hasName" ref="D8"/>
+    <hyperlink r:id="rId8" location="hasCategory" ref="D9"/>
+    <hyperlink r:id="rId9" location="hasDescription" ref="D10"/>
+    <hyperlink r:id="rId10" location="hasCode" ref="D11"/>
+    <hyperlink r:id="rId11" location="hasValue" ref="D12"/>
+    <hyperlink r:id="rId12" location="hasValue" ref="D13"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId66"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
--- a/full_anno/all_anno/CPTEVENTS_anno.xlsx
+++ b/full_anno/all_anno/CPTEVENTS_anno.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="53">
   <si>
     <t>column</t>
   </si>
@@ -74,97 +74,107 @@
     <t>https://biomedit.ch/rdf/sphn-schema/sphn#Location</t>
   </si>
   <si>
+    <t>https://browser.ihtsdotools.org/?perspective=full&amp;conceptId1=439771001&amp;edition=MAIN&amp;release=&amp;languages=en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://biomedit.ch/rdf/sphn-schema/sphn#Code
+</t>
+  </si>
+  <si>
+    <t>https://browser.ihtsdotools.org/?perspective=full&amp;conceptId1=276132002&amp;edition=MAIN&amp;release=&amp;languages=en</t>
+  </si>
+  <si>
+    <t>https://browser.ihtsdotools.org/?perspective=full&amp;conceptId1=276134001&amp;edition=MAIN&amp;release=&amp;languages=en</t>
+  </si>
+  <si>
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#BilledProcedure_rank</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/2001/XMLSchema#string</t>
+  </si>
+  <si>
+    <t>https://browser.ihtsdotools.org/?perspective=full&amp;conceptId1=224930009&amp;edition=MAIN&amp;release=&amp;languages=en</t>
+  </si>
+  <si>
+    <t>CEA</t>
+  </si>
+  <si>
+    <t>ICU</t>
+  </si>
+  <si>
+    <t>https://www.aapc.com/codes/cpt-codes/99223</t>
+  </si>
+  <si>
+    <t>Evaluation and management</t>
+  </si>
+  <si>
+    <t>Hospital inpatient services</t>
+  </si>
+  <si>
+    <t>https://www.aapc.com/codes/cpt-codes/99291</t>
+  </si>
+  <si>
+    <t>Critical care services</t>
+  </si>
+  <si>
+    <t>https://www.aapc.com/codes/cpt-codes/99252</t>
+  </si>
+  <si>
+    <t>Consultations</t>
+  </si>
+  <si>
+    <t>https://www.aapc.com/codes/cpt-codes/99233</t>
+  </si>
+  <si>
+    <t>https://www.aapc.com/codes/cpt-codes/99232</t>
+  </si>
+  <si>
+    <t>https://www.aapc.com/codes/cpt-codes/99239</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>CPTEVENTS</t>
+  </si>
+  <si>
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasSubjectPseudoIdentifier</t>
+  </si>
+  <si>
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasAdministrativeCase</t>
+  </si>
+  <si>
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasRank</t>
+  </si>
+  <si>
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasLocation</t>
+  </si>
+  <si>
     <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasDateTime</t>
   </si>
   <si>
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasName</t>
+  </si>
+  <si>
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasCategory</t>
+  </si>
+  <si>
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasDescription</t>
+  </si>
+  <si>
     <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasCode</t>
-  </si>
-  <si>
-    <t>https://browser.ihtsdotools.org/?perspective=full&amp;conceptId1=276132002&amp;edition=MAIN&amp;release=&amp;languages=en</t>
-  </si>
-  <si>
-    <t>https://browser.ihtsdotools.org/?perspective=full&amp;conceptId1=276134001&amp;edition=MAIN&amp;release=&amp;languages=en</t>
-  </si>
-  <si>
-    <t>https://biomedit.ch/rdf/sphn-schema/sphn#BilledProcedure_rank</t>
-  </si>
-  <si>
-    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasCategory</t>
-  </si>
-  <si>
-    <t>https://browser.ihtsdotools.org/?perspective=full&amp;conceptId1=224930009&amp;edition=MAIN&amp;release=&amp;languages=en</t>
-  </si>
-  <si>
-    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasDescription</t>
-  </si>
-  <si>
-    <t>CEA</t>
-  </si>
-  <si>
-    <t>ICU</t>
-  </si>
-  <si>
-    <t>https://www.aapc.com/codes/cpt-codes/99223</t>
-  </si>
-  <si>
-    <t>Evaluation and management</t>
-  </si>
-  <si>
-    <t>Hospital inpatient services</t>
-  </si>
-  <si>
-    <t>https://www.aapc.com/codes/cpt-codes/99291</t>
-  </si>
-  <si>
-    <t>Critical care services</t>
-  </si>
-  <si>
-    <t>https://www.aapc.com/codes/cpt-codes/99252</t>
-  </si>
-  <si>
-    <t>Consultations</t>
-  </si>
-  <si>
-    <t>https://www.aapc.com/codes/cpt-codes/99233</t>
-  </si>
-  <si>
-    <t>https://www.aapc.com/codes/cpt-codes/99232</t>
-  </si>
-  <si>
-    <t>https://www.aapc.com/codes/cpt-codes/99239</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>CPTEVENTS</t>
-  </si>
-  <si>
-    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasSubjectPseudoIdentifier</t>
-  </si>
-  <si>
-    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasAdministrativeCase</t>
-  </si>
-  <si>
-    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasRank</t>
-  </si>
-  <si>
-    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasLocation</t>
-  </si>
-  <si>
-    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasName</t>
   </si>
   <si>
     <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasValue</t>
@@ -803,15 +813,15 @@
     <col customWidth="1" min="7" max="7" width="22.0"/>
     <col customWidth="1" min="8" max="8" width="2.14"/>
     <col customWidth="1" min="9" max="9" width="16.57"/>
-    <col customWidth="1" min="10" max="10" width="2.57"/>
+    <col customWidth="1" min="10" max="10" width="57.71"/>
     <col customWidth="1" min="11" max="11" width="14.43"/>
-    <col customWidth="1" min="12" max="12" width="2.14"/>
+    <col customWidth="1" min="12" max="12" width="29.71"/>
     <col customWidth="1" min="13" max="13" width="14.0"/>
     <col customWidth="1" min="14" max="14" width="16.86"/>
     <col customWidth="1" min="15" max="15" width="21.57"/>
-    <col customWidth="1" min="16" max="16" width="2.43"/>
+    <col customWidth="1" min="16" max="16" width="11.0"/>
     <col customWidth="1" min="17" max="17" width="17.0"/>
-    <col customWidth="1" min="18" max="18" width="2.14"/>
+    <col customWidth="1" min="18" max="18" width="28.71"/>
     <col customWidth="1" min="19" max="19" width="26.86"/>
     <col customWidth="1" min="20" max="20" width="2.0"/>
     <col customWidth="1" min="21" max="21" width="33.0"/>
@@ -916,7 +926,7 @@
         <v>22</v>
       </c>
       <c r="S2" s="8"/>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="U2" s="5"/>
@@ -925,7 +935,7 @@
       </c>
       <c r="W2" s="8"/>
       <c r="X2" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y2" s="8"/>
     </row>
@@ -958,7 +968,7 @@
     </row>
     <row r="4">
       <c r="A4" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="12">
         <v>225966.0</v>
@@ -973,7 +983,7 @@
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -982,7 +992,7 @@
         <v>99223.0</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N4" s="12">
         <v>99223.0</v>
@@ -995,11 +1005,11 @@
       </c>
       <c r="S4" s="12"/>
       <c r="T4" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W4" s="12"/>
       <c r="X4" s="12"/>
@@ -1020,7 +1030,7 @@
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
@@ -1029,7 +1039,7 @@
         <v>99291.0</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N5" s="12">
         <v>99291.0</v>
@@ -1042,11 +1052,11 @@
       </c>
       <c r="S5" s="12"/>
       <c r="T5" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U5" s="12"/>
       <c r="V5" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
@@ -1067,7 +1077,7 @@
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
@@ -1076,7 +1086,7 @@
         <v>99252.0</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N6" s="12">
         <v>99252.0</v>
@@ -1089,11 +1099,11 @@
       </c>
       <c r="S6" s="12"/>
       <c r="T6" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
@@ -1114,7 +1124,7 @@
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -1123,7 +1133,7 @@
         <v>99233.0</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N7" s="12">
         <v>99233.0</v>
@@ -1136,11 +1146,11 @@
       </c>
       <c r="S7" s="12"/>
       <c r="T7" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U7" s="12"/>
       <c r="V7" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
@@ -1161,7 +1171,7 @@
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -1170,7 +1180,7 @@
         <v>99233.0</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N8" s="12">
         <v>99233.0</v>
@@ -1183,11 +1193,11 @@
       </c>
       <c r="S8" s="12"/>
       <c r="T8" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U8" s="12"/>
       <c r="V8" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
@@ -1208,7 +1218,7 @@
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -1217,7 +1227,7 @@
         <v>99232.0</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N9" s="12">
         <v>99232.0</v>
@@ -1230,11 +1240,11 @@
       </c>
       <c r="S9" s="12"/>
       <c r="T9" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U9" s="12"/>
       <c r="V9" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W9" s="12"/>
       <c r="X9" s="12"/>
@@ -1255,7 +1265,7 @@
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -1264,7 +1274,7 @@
         <v>99232.0</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N10" s="12">
         <v>99232.0</v>
@@ -1277,11 +1287,11 @@
       </c>
       <c r="S10" s="12"/>
       <c r="T10" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U10" s="12"/>
       <c r="V10" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
@@ -1302,7 +1312,7 @@
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -1311,7 +1321,7 @@
         <v>99239.0</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N11" s="12">
         <v>99239.0</v>
@@ -1324,11 +1334,11 @@
       </c>
       <c r="S11" s="12"/>
       <c r="T11" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U11" s="12"/>
       <c r="V11" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
@@ -2295,14 +2305,14 @@
     <hyperlink r:id="rId3" location="SubjectPseudoIdentifier" ref="D2"/>
     <hyperlink r:id="rId4" location="AdministrativeCase" ref="F2"/>
     <hyperlink r:id="rId5" location="Location" ref="H2"/>
-    <hyperlink r:id="rId6" location="hasDateTime" ref="J2"/>
-    <hyperlink r:id="rId7" location="hasCode" ref="L2"/>
+    <hyperlink r:id="rId6" ref="J2"/>
+    <hyperlink r:id="rId7" location="Code" ref="L2"/>
     <hyperlink r:id="rId8" ref="N2"/>
     <hyperlink r:id="rId9" ref="P2"/>
     <hyperlink r:id="rId10" location="BilledProcedure_rank" ref="R2"/>
-    <hyperlink r:id="rId11" location="hasCategory" ref="T2"/>
+    <hyperlink r:id="rId11" location="string" ref="T2"/>
     <hyperlink r:id="rId12" ref="V2"/>
-    <hyperlink r:id="rId13" location="hasDescription" ref="X2"/>
+    <hyperlink r:id="rId13" location="string" ref="X2"/>
     <hyperlink r:id="rId14" ref="M4"/>
     <hyperlink r:id="rId15" ref="M5"/>
     <hyperlink r:id="rId16" ref="M6"/>
@@ -2348,29 +2358,29 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
       <c r="G1" s="20"/>
       <c r="H1" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
     </row>
     <row r="2">
       <c r="A2" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>1</v>
@@ -2379,7 +2389,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
@@ -2392,7 +2402,7 @@
     </row>
     <row r="3">
       <c r="A3" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>1</v>
@@ -2401,7 +2411,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
@@ -2414,7 +2424,7 @@
     </row>
     <row r="4">
       <c r="A4" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>3</v>
@@ -2423,7 +2433,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
@@ -2436,7 +2446,7 @@
     </row>
     <row r="5">
       <c r="A5" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>1</v>
@@ -2445,7 +2455,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="32"/>
@@ -2458,7 +2468,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>1</v>
@@ -2467,7 +2477,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="32"/>
@@ -2480,7 +2490,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>1</v>
@@ -2489,7 +2499,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
@@ -2502,7 +2512,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>1</v>
@@ -2524,7 +2534,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="38" t="s">
         <v>11</v>
@@ -2533,7 +2543,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
@@ -2546,7 +2556,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="38" t="s">
         <v>11</v>
@@ -2555,7 +2565,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="32"/>
@@ -2568,7 +2578,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="34" t="s">
         <v>1</v>
@@ -2577,7 +2587,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
@@ -2590,7 +2600,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="38" t="s">
         <v>6</v>
@@ -2599,7 +2609,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
@@ -2612,7 +2622,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="38" t="s">
         <v>6</v>
@@ -2621,7 +2631,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
@@ -3688,16 +3698,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="C1" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="D1" s="48" t="s">
         <v>40</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>41</v>
       </c>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
@@ -3708,7 +3718,7 @@
     </row>
     <row r="2">
       <c r="A2" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>1</v>
@@ -3717,7 +3727,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="32"/>
       <c r="F2" s="32"/>
@@ -3728,7 +3738,7 @@
     </row>
     <row r="3">
       <c r="A3" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>1</v>
@@ -3737,7 +3747,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
@@ -3748,7 +3758,7 @@
     </row>
     <row r="4">
       <c r="A4" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>3</v>
@@ -3757,7 +3767,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="32"/>
@@ -3768,7 +3778,7 @@
     </row>
     <row r="5">
       <c r="A5" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>1</v>
@@ -3777,7 +3787,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="32"/>
@@ -3788,7 +3798,7 @@
     </row>
     <row r="6">
       <c r="A6" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>1</v>
@@ -3797,7 +3807,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="32"/>
@@ -3808,7 +3818,7 @@
     </row>
     <row r="7">
       <c r="A7" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>1</v>
@@ -3817,7 +3827,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
@@ -3828,7 +3838,7 @@
     </row>
     <row r="8">
       <c r="A8" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>1</v>
@@ -3848,7 +3858,7 @@
     </row>
     <row r="9">
       <c r="A9" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="38" t="s">
         <v>11</v>
@@ -3857,7 +3867,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
@@ -3868,7 +3878,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="38" t="s">
         <v>11</v>
@@ -3877,7 +3887,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="32"/>
@@ -3888,7 +3898,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="34" t="s">
         <v>1</v>
@@ -3897,7 +3907,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
@@ -3908,7 +3918,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="38" t="s">
         <v>6</v>
@@ -3917,7 +3927,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
@@ -3928,7 +3938,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="38" t="s">
         <v>6</v>
@@ -3937,7 +3947,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
